--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Epor.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Epo-Epor.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1113566666666667</v>
+        <v>0.05285566666666667</v>
       </c>
       <c r="H2">
-        <v>0.33407</v>
+        <v>0.158567</v>
       </c>
       <c r="I2">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="J2">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4072723333333334</v>
+        <v>0.4065259999999999</v>
       </c>
       <c r="N2">
-        <v>1.221817</v>
+        <v>1.219578</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.04535248946555556</v>
+        <v>0.02148720274733333</v>
       </c>
       <c r="R2">
-        <v>0.40817240519</v>
+        <v>0.193384824726</v>
       </c>
       <c r="S2">
-        <v>0.7183683124032341</v>
+        <v>0.5476571215423245</v>
       </c>
       <c r="T2">
-        <v>0.7183683124032342</v>
+        <v>0.5476571215423245</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,22 +602,22 @@
         <v>0.090014</v>
       </c>
       <c r="I3">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="J3">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.4072723333333334</v>
+        <v>0.4065259999999999</v>
       </c>
       <c r="N3">
-        <v>1.221817</v>
+        <v>1.219578</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.01222007060422222</v>
+        <v>0.01219767712133333</v>
       </c>
       <c r="R3">
-        <v>0.109980635438</v>
+        <v>0.109779094092</v>
       </c>
       <c r="S3">
-        <v>0.1935618441424393</v>
+        <v>0.3108894545429426</v>
       </c>
       <c r="T3">
-        <v>0.1935618441424394</v>
+        <v>0.3108894545429427</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,22 +664,22 @@
         <v>0.040956</v>
       </c>
       <c r="I4">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="J4">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4072723333333334</v>
+        <v>0.4065259999999999</v>
       </c>
       <c r="N4">
-        <v>1.221817</v>
+        <v>1.219578</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.005560081894666668</v>
+        <v>0.005549892951999999</v>
       </c>
       <c r="R4">
-        <v>0.050040737052</v>
+        <v>0.04994903656799999</v>
       </c>
       <c r="S4">
-        <v>0.0880698434543265</v>
+        <v>0.1414534239147328</v>
       </c>
       <c r="T4">
-        <v>0.08806984345432652</v>
+        <v>0.1414534239147328</v>
       </c>
     </row>
   </sheetData>
